--- a/Code/Results/Cases/Case_4_76/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_76/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8263289085767269</v>
+        <v>0.291003049473062</v>
       </c>
       <c r="C2">
-        <v>0.1335375284851068</v>
+        <v>0.0402907006301092</v>
       </c>
       <c r="D2">
-        <v>0.4291209556727864</v>
+        <v>0.6356570760909079</v>
       </c>
       <c r="E2">
-        <v>0.1540690640431137</v>
+        <v>0.2523126802185374</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4457453224357906</v>
+        <v>0.8498863867500859</v>
       </c>
       <c r="H2">
-        <v>0.3788999905840456</v>
+        <v>0.9253812374694164</v>
       </c>
       <c r="I2">
-        <v>0.3372963198638175</v>
+        <v>0.7599546138712299</v>
       </c>
       <c r="J2">
-        <v>0.06637093190171584</v>
+        <v>0.1262281300772727</v>
       </c>
       <c r="K2">
-        <v>0.9058454819061126</v>
+        <v>0.3062434652994739</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.365975998357861</v>
+        <v>0.2659749248320509</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.685034311468584</v>
+        <v>3.576942259872723</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7202824417725822</v>
+        <v>0.2585444036277522</v>
       </c>
       <c r="C3">
-        <v>0.1172529397819346</v>
+        <v>0.03522279083021829</v>
       </c>
       <c r="D3">
-        <v>0.394970698974376</v>
+        <v>0.630318815717871</v>
       </c>
       <c r="E3">
-        <v>0.1435576291156551</v>
+        <v>0.2510763916632044</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.4397681589090965</v>
+        <v>0.8548767174202396</v>
       </c>
       <c r="H3">
-        <v>0.3824276116386827</v>
+        <v>0.9317138462302665</v>
       </c>
       <c r="I3">
-        <v>0.3445944326648096</v>
+        <v>0.767041290919753</v>
       </c>
       <c r="J3">
-        <v>0.06323695242781469</v>
+        <v>0.1262064540689565</v>
       </c>
       <c r="K3">
-        <v>0.790560149764417</v>
+        <v>0.270800086608773</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3202454636604628</v>
+        <v>0.2539989774158045</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.679360296005882</v>
+        <v>3.60050482414826</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6551767587390316</v>
+        <v>0.2386075621261341</v>
       </c>
       <c r="C4">
-        <v>0.1072515888022423</v>
+        <v>0.03210142484067546</v>
       </c>
       <c r="D4">
-        <v>0.3744934805761915</v>
+        <v>0.6273368094620224</v>
       </c>
       <c r="E4">
-        <v>0.1372980085390978</v>
+        <v>0.2504335323714457</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.4370628304815725</v>
+        <v>0.8584256575992057</v>
       </c>
       <c r="H4">
-        <v>0.3851845950265371</v>
+        <v>0.9359624268577704</v>
       </c>
       <c r="I4">
-        <v>0.3497513041591986</v>
+        <v>0.7717564610455909</v>
       </c>
       <c r="J4">
-        <v>0.06140817616464034</v>
+        <v>0.1262496292161224</v>
       </c>
       <c r="K4">
-        <v>0.7197732999834017</v>
+        <v>0.2490152984482421</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2923361681738896</v>
+        <v>0.2467448849688338</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.67914889805688</v>
+        <v>3.616744953434022</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6286399977241786</v>
+        <v>0.2304818811139171</v>
       </c>
       <c r="C5">
-        <v>0.1031740034687232</v>
+        <v>0.0308270848830432</v>
       </c>
       <c r="D5">
-        <v>0.3662654838007171</v>
+        <v>0.6261961423229252</v>
       </c>
       <c r="E5">
-        <v>0.1347935138956409</v>
+        <v>0.2502008388517289</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.4361926115922969</v>
+        <v>0.8599937863470188</v>
       </c>
       <c r="H5">
-        <v>0.3864521723176608</v>
+        <v>0.9377844472445815</v>
       </c>
       <c r="I5">
-        <v>0.3520171133343446</v>
+        <v>0.7737694535532746</v>
       </c>
       <c r="J5">
-        <v>0.06068582251418064</v>
+        <v>0.1262814419288212</v>
       </c>
       <c r="K5">
-        <v>0.6909184210874884</v>
+        <v>0.2401327393910293</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2810004933961778</v>
+        <v>0.2438139260933383</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.679854195947826</v>
+        <v>3.623808809085631</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6242330358521997</v>
+        <v>0.2291325577178043</v>
       </c>
       <c r="C6">
-        <v>0.1024967686952465</v>
+        <v>0.0306153413056478</v>
       </c>
       <c r="D6">
-        <v>0.3649060809396332</v>
+        <v>0.6260112414222192</v>
       </c>
       <c r="E6">
-        <v>0.1343803719382066</v>
+        <v>0.2501639700123341</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.4360618445188891</v>
+        <v>0.8602615353833514</v>
       </c>
       <c r="H6">
-        <v>0.3866712264241343</v>
+        <v>0.9380924721243531</v>
       </c>
       <c r="I6">
-        <v>0.3524031162484818</v>
+        <v>0.7741092374892382</v>
       </c>
       <c r="J6">
-        <v>0.06056722667121761</v>
+        <v>0.1262875836110879</v>
       </c>
       <c r="K6">
-        <v>0.6861263322153093</v>
+        <v>0.2386575066965833</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2791203419188406</v>
+        <v>0.2433287670893876</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.680018219370098</v>
+        <v>3.625008690338788</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6548189072344428</v>
+        <v>0.2384979807337118</v>
       </c>
       <c r="C7">
-        <v>0.1071966066477614</v>
+        <v>0.03208424810249255</v>
       </c>
       <c r="D7">
-        <v>0.3743820515274052</v>
+        <v>0.6273211240568344</v>
       </c>
       <c r="E7">
-        <v>0.1372640476452354</v>
+        <v>0.2504302755768038</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.4370501674692733</v>
+        <v>0.8584463123558876</v>
       </c>
       <c r="H7">
-        <v>0.3852011124565919</v>
+        <v>0.9359866319576682</v>
       </c>
       <c r="I7">
-        <v>0.3497812034466747</v>
+        <v>0.7717832383812784</v>
       </c>
       <c r="J7">
-        <v>0.06139834302969049</v>
+        <v>0.1262500006633225</v>
       </c>
       <c r="K7">
-        <v>0.7193841987698164</v>
+        <v>0.2488955249870202</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2921831455406547</v>
+        <v>0.2467052549634019</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.679155245916306</v>
+        <v>3.616838413574811</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7897578977831188</v>
+        <v>0.2798130896065629</v>
       </c>
       <c r="C8">
-        <v>0.1279223111500301</v>
+        <v>0.03854532735883254</v>
       </c>
       <c r="D8">
-        <v>0.4172397536721917</v>
+        <v>0.6337551667334225</v>
       </c>
       <c r="E8">
-        <v>0.1504027933563101</v>
+        <v>0.2518623144609364</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.443477797335845</v>
+        <v>0.851506411145813</v>
       </c>
       <c r="H8">
-        <v>0.3799908574689397</v>
+        <v>0.9274899820338049</v>
       </c>
       <c r="I8">
-        <v>0.3396690030590719</v>
+        <v>0.7623225751478735</v>
       </c>
       <c r="J8">
-        <v>0.06526981880993077</v>
+        <v>0.1262089415986694</v>
       </c>
       <c r="K8">
-        <v>0.8660901258636784</v>
+        <v>0.2940275608049205</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3501698287530317</v>
+        <v>0.2618251481858067</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.682379324367872</v>
+        <v>3.584698801589553</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.054803221707601</v>
+        <v>0.3607562448077317</v>
       </c>
       <c r="C9">
-        <v>0.1686103447141534</v>
+        <v>0.05113652641922783</v>
       </c>
       <c r="D9">
-        <v>0.5055115796089638</v>
+        <v>0.6487126215383796</v>
       </c>
       <c r="E9">
-        <v>0.1778327598966669</v>
+        <v>0.255590942975104</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.4642286388372838</v>
+        <v>0.8417456022186514</v>
       </c>
       <c r="H9">
-        <v>0.3746781481824115</v>
+        <v>0.9136837143313414</v>
       </c>
       <c r="I9">
-        <v>0.325465728881273</v>
+        <v>0.7466573181124332</v>
       </c>
       <c r="J9">
-        <v>0.07367349216614372</v>
+        <v>0.126576078725293</v>
       </c>
       <c r="K9">
-        <v>1.154186165656938</v>
+        <v>0.3823334802848706</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4654708494151123</v>
+        <v>0.2922550752789519</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.716161747130172</v>
+        <v>3.535733677796344</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.250364282860346</v>
+        <v>0.4201589686708473</v>
       </c>
       <c r="C10">
-        <v>0.1986310475526523</v>
+        <v>0.06033681173697403</v>
       </c>
       <c r="D10">
-        <v>0.5734338884885233</v>
+        <v>0.6611225060240145</v>
       </c>
       <c r="E10">
-        <v>0.1991817406143142</v>
+        <v>0.2588896698897614</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.4851639102621448</v>
+        <v>0.8369228118106946</v>
       </c>
       <c r="H10">
-        <v>0.3740811217363103</v>
+        <v>0.9052766300033852</v>
       </c>
       <c r="I10">
-        <v>0.3188478505931513</v>
+        <v>0.7369074717070703</v>
       </c>
       <c r="J10">
-        <v>0.08042245825843253</v>
+        <v>0.1271182156636428</v>
       </c>
       <c r="K10">
-        <v>1.366733500595672</v>
+        <v>0.447070604304173</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5515201846023885</v>
+        <v>0.3150802532907448</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.759919065513969</v>
+        <v>3.508326878810323</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.339647681946559</v>
+        <v>0.4471645372680655</v>
       </c>
       <c r="C11">
-        <v>0.2123399867744666</v>
+        <v>0.06451086286908492</v>
       </c>
       <c r="D11">
-        <v>0.6051164010555965</v>
+        <v>0.6670753961913931</v>
       </c>
       <c r="E11">
-        <v>0.2091966504040315</v>
+        <v>0.260511451697063</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.496094559918717</v>
+        <v>0.8352393287400446</v>
       </c>
       <c r="H11">
-        <v>0.374602377282983</v>
+        <v>0.9018281410721869</v>
       </c>
       <c r="I11">
-        <v>0.3167574814228189</v>
+        <v>0.7328539395505089</v>
       </c>
       <c r="J11">
-        <v>0.08363652677269329</v>
+        <v>0.1274239050540515</v>
       </c>
       <c r="K11">
-        <v>1.463771402102367</v>
+        <v>0.4764865610571292</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5910447192353629</v>
+        <v>0.3255643513860988</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.784457606016872</v>
+        <v>3.497718626816123</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.373515115119062</v>
+        <v>0.4573879376153798</v>
       </c>
       <c r="C12">
-        <v>0.2175408542540254</v>
+        <v>0.06608979936707726</v>
       </c>
       <c r="D12">
-        <v>0.6172367885445169</v>
+        <v>0.6693736898942007</v>
       </c>
       <c r="E12">
-        <v>0.2130364249893688</v>
+        <v>0.2611429615867777</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.5004513276138738</v>
+        <v>0.8346752724044819</v>
       </c>
       <c r="H12">
-        <v>0.3749204851728223</v>
+        <v>0.9005762742876584</v>
       </c>
       <c r="I12">
-        <v>0.3161064080764433</v>
+        <v>0.73137386006238</v>
       </c>
       <c r="J12">
-        <v>0.08487599376120869</v>
+        <v>0.1275481441720814</v>
       </c>
       <c r="K12">
-        <v>1.500580613515808</v>
+        <v>0.4876203568614983</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.606074016470501</v>
+        <v>0.3295487333502862</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.794462412174312</v>
+        <v>3.493968844289384</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.366218397100198</v>
+        <v>0.4551862889697702</v>
       </c>
       <c r="C13">
-        <v>0.216420293358297</v>
+        <v>0.06574982331792967</v>
       </c>
       <c r="D13">
-        <v>0.6146208113471516</v>
+        <v>0.6688767541234029</v>
       </c>
       <c r="E13">
-        <v>0.2122072926267364</v>
+        <v>0.2610061825887442</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4995030897953825</v>
+        <v>0.8347934849879977</v>
       </c>
       <c r="H13">
-        <v>0.3748464941552072</v>
+        <v>0.9008434854029161</v>
       </c>
       <c r="I13">
-        <v>0.3162402431992426</v>
+        <v>0.7316901795168391</v>
       </c>
       <c r="J13">
-        <v>0.08460802963559644</v>
+        <v>0.1275210100564692</v>
       </c>
       <c r="K13">
-        <v>1.492650071232134</v>
+        <v>0.4852227439552337</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6028342957536452</v>
+        <v>0.3286899936485526</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.792275233522275</v>
+        <v>3.494764537761995</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.342432749896176</v>
+        <v>0.4480056864215385</v>
       </c>
       <c r="C14">
-        <v>0.2127676607085789</v>
+        <v>0.06464079714392312</v>
       </c>
       <c r="D14">
-        <v>0.6061110289496128</v>
+        <v>0.6672635960481728</v>
       </c>
       <c r="E14">
-        <v>0.2095115796876286</v>
+        <v>0.2605630584261434</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.4964485425269771</v>
+        <v>0.8351914513505392</v>
       </c>
       <c r="H14">
-        <v>0.3746260887421897</v>
+        <v>0.9017240673060485</v>
       </c>
       <c r="I14">
-        <v>0.3167010524741407</v>
+        <v>0.7327310720585949</v>
       </c>
       <c r="J14">
-        <v>0.08373804016985531</v>
+        <v>0.1274339563788729</v>
       </c>
       <c r="K14">
-        <v>1.466798377044199</v>
+        <v>0.4774026565776239</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5922798966562297</v>
+        <v>0.3258918638949311</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.785266149272388</v>
+        <v>3.497404772353548</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.327871229962085</v>
+        <v>0.4436069494211949</v>
       </c>
       <c r="C15">
-        <v>0.2105316304726159</v>
+        <v>0.06396126479648956</v>
       </c>
       <c r="D15">
-        <v>0.6009148598275544</v>
+        <v>0.6662812235984461</v>
       </c>
       <c r="E15">
-        <v>0.2078666591962772</v>
+        <v>0.2602938935522374</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.494606347435905</v>
+        <v>0.8354447828468068</v>
       </c>
       <c r="H15">
-        <v>0.3745070122716356</v>
+        <v>0.9022704799743906</v>
       </c>
       <c r="I15">
-        <v>0.3170018615300805</v>
+        <v>0.7333757994853087</v>
       </c>
       <c r="J15">
-        <v>0.08320811119969562</v>
+        <v>0.1273817376073225</v>
       </c>
       <c r="K15">
-        <v>1.450972079001389</v>
+        <v>0.4726119076598252</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5858233571835569</v>
+        <v>0.3241797821316865</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.781067112841725</v>
+        <v>3.499056806107717</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.244536839150214</v>
+        <v>0.4183936995166846</v>
       </c>
       <c r="C16">
-        <v>0.1977363623247754</v>
+        <v>0.06006379580558985</v>
       </c>
       <c r="D16">
-        <v>0.5713799942805338</v>
+        <v>0.6607396456782624</v>
       </c>
       <c r="E16">
-        <v>0.1985336579579098</v>
+        <v>0.258786116837129</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.4844791596695615</v>
+        <v>0.8370431062200225</v>
       </c>
       <c r="H16">
-        <v>0.3740635738140554</v>
+        <v>0.905509556690248</v>
       </c>
       <c r="I16">
-        <v>0.3190036645511469</v>
+        <v>0.7371800619853062</v>
       </c>
       <c r="J16">
-        <v>0.08021544789646384</v>
+        <v>0.127099425659523</v>
       </c>
       <c r="K16">
-        <v>1.360399948058671</v>
+        <v>0.4451474810427101</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5489454470507624</v>
+        <v>0.3143971030156507</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.758412536575094</v>
+        <v>3.509057563623088</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.193504196470144</v>
+        <v>0.4029214172439879</v>
       </c>
       <c r="C17">
-        <v>0.1899017081069303</v>
+        <v>0.05766990166691244</v>
       </c>
       <c r="D17">
-        <v>0.5534691853561924</v>
+        <v>0.6574187262513931</v>
       </c>
       <c r="E17">
-        <v>0.1928883998772477</v>
+        <v>0.257892145915541</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.4786373671603172</v>
+        <v>0.8381543897405948</v>
       </c>
       <c r="H17">
-        <v>0.3739992384419253</v>
+        <v>0.9075928701628868</v>
       </c>
       <c r="I17">
-        <v>0.3204730352179901</v>
+        <v>0.7396116319168691</v>
       </c>
       <c r="J17">
-        <v>0.07841756388082644</v>
+        <v>0.1269413561958146</v>
       </c>
       <c r="K17">
-        <v>1.304935142160019</v>
+        <v>0.4282899906234832</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5264246324624793</v>
+        <v>0.3084214132515086</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.745733356903202</v>
+        <v>3.515668883146162</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.164181112887547</v>
+        <v>0.3940206011009479</v>
       </c>
       <c r="C18">
-        <v>0.1854002190663522</v>
+        <v>0.05629194688300743</v>
       </c>
       <c r="D18">
-        <v>0.5432405400039215</v>
+        <v>0.6555375812048396</v>
       </c>
       <c r="E18">
-        <v>0.18966969157092</v>
+        <v>0.2573893658952855</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.4754087943216661</v>
+        <v>0.8388416120304498</v>
       </c>
       <c r="H18">
-        <v>0.3740364331520993</v>
+        <v>0.9088265252761261</v>
       </c>
       <c r="I18">
-        <v>0.3214042649514148</v>
+        <v>0.7410461352572142</v>
       </c>
       <c r="J18">
-        <v>0.0773969092375566</v>
+        <v>0.1268559994022027</v>
       </c>
       <c r="K18">
-        <v>1.273065281628163</v>
+        <v>0.4185909108783505</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5135065659398279</v>
+        <v>0.3049938561139314</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.738873765295324</v>
+        <v>3.51964654104134</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.154257558053331</v>
+        <v>0.3910066857909555</v>
       </c>
       <c r="C19">
-        <v>0.1838768559456838</v>
+        <v>0.05582521698097764</v>
       </c>
       <c r="D19">
-        <v>0.5397895673002608</v>
+        <v>0.6549056367398691</v>
       </c>
       <c r="E19">
-        <v>0.1885846416356074</v>
+        <v>0.2572210940977939</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.4743377877812804</v>
+        <v>0.8390825435219114</v>
       </c>
       <c r="H19">
-        <v>0.3740615732127424</v>
+        <v>0.909250299450818</v>
       </c>
       <c r="I19">
-        <v>0.3217341079011007</v>
+        <v>0.7415380037906552</v>
       </c>
       <c r="J19">
-        <v>0.07705359246336485</v>
+        <v>0.1268280544834113</v>
       </c>
       <c r="K19">
-        <v>1.262279818589093</v>
+        <v>0.4153064555733863</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5091385741826286</v>
+        <v>0.3038349826105531</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.73662425479921</v>
+        <v>3.521023365106942</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.198933570268167</v>
+        <v>0.4045686346113371</v>
       </c>
       <c r="C20">
-        <v>0.1907352095627743</v>
+        <v>0.05792484501829165</v>
       </c>
       <c r="D20">
-        <v>0.5553681766828333</v>
+        <v>0.6577692477406458</v>
       </c>
       <c r="E20">
-        <v>0.1934863924465873</v>
+        <v>0.2579861302693445</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.4792455220304106</v>
+        <v>0.8380311192927365</v>
       </c>
       <c r="H20">
-        <v>0.3739983606034087</v>
+        <v>0.9073674357506576</v>
       </c>
       <c r="I20">
-        <v>0.3203076509450469</v>
+        <v>0.7393490685661739</v>
       </c>
       <c r="J20">
-        <v>0.07860754889436095</v>
+        <v>0.126957607553237</v>
       </c>
       <c r="K20">
-        <v>1.310836060344883</v>
+        <v>0.4300848241643962</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5288183042425061</v>
+        <v>0.3090565538088512</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.747037923234387</v>
+        <v>3.514946985037881</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.349417508046855</v>
+        <v>0.4501148900409362</v>
       </c>
       <c r="C21">
-        <v>0.21384024998207</v>
+        <v>0.06496659136946903</v>
       </c>
       <c r="D21">
-        <v>0.6086071385587672</v>
+        <v>0.6677362251280101</v>
       </c>
       <c r="E21">
-        <v>0.2103020597992895</v>
+        <v>0.260692743532303</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.497339705877593</v>
+        <v>0.835072565442843</v>
       </c>
       <c r="H21">
-        <v>0.3746874951065422</v>
+        <v>0.901463953940862</v>
       </c>
       <c r="I21">
-        <v>0.3165618204181513</v>
+        <v>0.7324238464652311</v>
       </c>
       <c r="J21">
-        <v>0.08399295617599734</v>
+        <v>0.1274592960794223</v>
       </c>
       <c r="K21">
-        <v>1.474389827405048</v>
+        <v>0.4796997568379879</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5953782283611844</v>
+        <v>0.3267133565456888</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.787305162569908</v>
+        <v>3.496622016326512</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.44811000512297</v>
+        <v>0.4798641190267574</v>
       </c>
       <c r="C22">
-        <v>0.2289977000078807</v>
+        <v>0.06955891738581954</v>
       </c>
       <c r="D22">
-        <v>0.6441234764129433</v>
+        <v>0.6745069793460061</v>
       </c>
       <c r="E22">
-        <v>0.2215699655808834</v>
+        <v>0.2625629316878815</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.5104412762745483</v>
+        <v>0.8335670762063643</v>
       </c>
       <c r="H22">
-        <v>0.375844981150081</v>
+        <v>0.8979204205864022</v>
       </c>
       <c r="I22">
-        <v>0.3149368670184067</v>
+        <v>0.7282178493289209</v>
       </c>
       <c r="J22">
-        <v>0.08764387560128029</v>
+        <v>0.1278366073856887</v>
       </c>
       <c r="K22">
-        <v>1.581655927310067</v>
+        <v>0.5120942963067989</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6392455026017032</v>
+        <v>0.3383362420089711</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.81779948963279</v>
+        <v>3.486203795472534</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.395400600543582</v>
+        <v>0.4639882209776829</v>
       </c>
       <c r="C23">
-        <v>0.2209019476820941</v>
+        <v>0.06710883362454467</v>
       </c>
       <c r="D23">
-        <v>0.6250981860639513</v>
+        <v>0.6708698616046433</v>
       </c>
       <c r="E23">
-        <v>0.215529337222911</v>
+        <v>0.2615555278072321</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.5033266648676573</v>
+        <v>0.8343313991682351</v>
       </c>
       <c r="H23">
-        <v>0.3751601713890125</v>
+        <v>0.8997828919765283</v>
       </c>
       <c r="I23">
-        <v>0.3157259662729608</v>
+        <v>0.7304333812222339</v>
       </c>
       <c r="J23">
-        <v>0.08568271920841397</v>
+        <v>0.1276307107343726</v>
       </c>
       <c r="K23">
-        <v>1.52436724076108</v>
+        <v>0.494807818826672</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6157965463078767</v>
+        <v>0.3321253525550105</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.801125715436314</v>
+        <v>3.491621628179075</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.196478900578484</v>
+        <v>0.403823945024385</v>
       </c>
       <c r="C24">
-        <v>0.1903583751175262</v>
+        <v>0.05780959033575073</v>
       </c>
       <c r="D24">
-        <v>0.5545094300454139</v>
+        <v>0.6576106894494274</v>
       </c>
       <c r="E24">
-        <v>0.1932159567304765</v>
+        <v>0.2579436051284318</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.4789701715833274</v>
+        <v>0.8380866993184668</v>
       </c>
       <c r="H24">
-        <v>0.3739985269159405</v>
+        <v>0.9074692427220867</v>
       </c>
       <c r="I24">
-        <v>0.3203821524563288</v>
+        <v>0.7394676595710337</v>
       </c>
       <c r="J24">
-        <v>0.07852161638734145</v>
+        <v>0.1269502431214562</v>
       </c>
       <c r="K24">
-        <v>1.308168201389861</v>
+        <v>0.4292734031874375</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5277360340644606</v>
+        <v>0.3087693819948996</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.746446793416339</v>
+        <v>3.515272804689204</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9829988338767066</v>
+        <v>0.3388691593967508</v>
       </c>
       <c r="C25">
-        <v>0.1575884676098838</v>
+        <v>0.04773896876962169</v>
       </c>
       <c r="D25">
-        <v>0.4811301264644214</v>
+        <v>0.6444163140087369</v>
       </c>
       <c r="E25">
-        <v>0.1702159449628624</v>
+        <v>0.2544839003010217</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.4576708414254682</v>
+        <v>0.8439739170653695</v>
       </c>
       <c r="H25">
-        <v>0.3755588398201297</v>
+        <v>0.9171134260457166</v>
       </c>
       <c r="I25">
-        <v>0.3286671511125263</v>
+        <v>0.7505861685231885</v>
       </c>
       <c r="J25">
-        <v>0.07130522256199612</v>
+        <v>0.1264288857082008</v>
       </c>
       <c r="K25">
-        <v>1.076142058206329</v>
+        <v>0.3584677100649856</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4340720677946734</v>
+        <v>0.2839402202306474</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.703864217580531</v>
+        <v>3.547475155863424</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_76/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_76/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.291003049473062</v>
+        <v>0.8263289085768122</v>
       </c>
       <c r="C2">
-        <v>0.0402907006301092</v>
+        <v>0.1335375284852631</v>
       </c>
       <c r="D2">
-        <v>0.6356570760909079</v>
+        <v>0.4291209556727011</v>
       </c>
       <c r="E2">
-        <v>0.2523126802185374</v>
+        <v>0.1540690640431066</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.8498863867500859</v>
+        <v>0.4457453224357764</v>
       </c>
       <c r="H2">
-        <v>0.9253812374694164</v>
+        <v>0.3788999905840384</v>
       </c>
       <c r="I2">
-        <v>0.7599546138712299</v>
+        <v>0.3372963198638246</v>
       </c>
       <c r="J2">
-        <v>0.1262281300772727</v>
+        <v>0.06637093190190413</v>
       </c>
       <c r="K2">
-        <v>0.3062434652994739</v>
+        <v>0.9058454819061126</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2659749248320509</v>
+        <v>0.365975998357861</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.576942259872723</v>
+        <v>1.685034311468542</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2585444036277522</v>
+        <v>0.7202824417723264</v>
       </c>
       <c r="C3">
-        <v>0.03522279083021829</v>
+        <v>0.1172529397819346</v>
       </c>
       <c r="D3">
-        <v>0.630318815717871</v>
+        <v>0.394970698974447</v>
       </c>
       <c r="E3">
-        <v>0.2510763916632044</v>
+        <v>0.1435576291156657</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.8548767174202396</v>
+        <v>0.4397681589091675</v>
       </c>
       <c r="H3">
-        <v>0.9317138462302665</v>
+        <v>0.382427611638775</v>
       </c>
       <c r="I3">
-        <v>0.767041290919753</v>
+        <v>0.3445944326648096</v>
       </c>
       <c r="J3">
-        <v>0.1262064540689565</v>
+        <v>0.06323695242784311</v>
       </c>
       <c r="K3">
-        <v>0.270800086608773</v>
+        <v>0.7905601497643318</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2539989774158045</v>
+        <v>0.320245463660477</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.60050482414826</v>
+        <v>1.679360296005797</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2386075621261341</v>
+        <v>0.6551767587390032</v>
       </c>
       <c r="C4">
-        <v>0.03210142484067546</v>
+        <v>0.1072515888022281</v>
       </c>
       <c r="D4">
-        <v>0.6273368094620224</v>
+        <v>0.3744934805762341</v>
       </c>
       <c r="E4">
-        <v>0.2504335323714457</v>
+        <v>0.1372980085390978</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.8584256575992057</v>
+        <v>0.4370628304815796</v>
       </c>
       <c r="H4">
-        <v>0.9359624268577704</v>
+        <v>0.3851845950265371</v>
       </c>
       <c r="I4">
-        <v>0.7717564610455909</v>
+        <v>0.3497513041592093</v>
       </c>
       <c r="J4">
-        <v>0.1262496292161224</v>
+        <v>0.06140817616468652</v>
       </c>
       <c r="K4">
-        <v>0.2490152984482421</v>
+        <v>0.7197732999833875</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2467448849688338</v>
+        <v>0.2923361681739038</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.616744953434022</v>
+        <v>1.679148898056866</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2304818811139171</v>
+        <v>0.6286399977241786</v>
       </c>
       <c r="C5">
-        <v>0.0308270848830432</v>
+        <v>0.1031740034689648</v>
       </c>
       <c r="D5">
-        <v>0.6261961423229252</v>
+        <v>0.3662654838005892</v>
       </c>
       <c r="E5">
-        <v>0.2502008388517289</v>
+        <v>0.1347935138956373</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.8599937863470188</v>
+        <v>0.4361926115922401</v>
       </c>
       <c r="H5">
-        <v>0.9377844472445815</v>
+        <v>0.3864521723176608</v>
       </c>
       <c r="I5">
-        <v>0.7737694535532746</v>
+        <v>0.3520171133343588</v>
       </c>
       <c r="J5">
-        <v>0.1262814419288212</v>
+        <v>0.06068582251423749</v>
       </c>
       <c r="K5">
-        <v>0.2401327393910293</v>
+        <v>0.6909184210874599</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2438139260933383</v>
+        <v>0.2810004933961778</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.623808809085631</v>
+        <v>1.679854195947883</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2291325577178043</v>
+        <v>0.6242330358521713</v>
       </c>
       <c r="C6">
-        <v>0.0306153413056478</v>
+        <v>0.1024967686955165</v>
       </c>
       <c r="D6">
-        <v>0.6260112414222192</v>
+        <v>0.3649060809397184</v>
       </c>
       <c r="E6">
-        <v>0.2501639700123341</v>
+        <v>0.1343803719382137</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.8602615353833514</v>
+        <v>0.4360618445188962</v>
       </c>
       <c r="H6">
-        <v>0.9380924721243531</v>
+        <v>0.386671226424248</v>
       </c>
       <c r="I6">
-        <v>0.7741092374892382</v>
+        <v>0.3524031162484711</v>
       </c>
       <c r="J6">
-        <v>0.1262875836110879</v>
+        <v>0.06056722667108616</v>
       </c>
       <c r="K6">
-        <v>0.2386575066965833</v>
+        <v>0.6861263322152809</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2433287670893876</v>
+        <v>0.2791203419188406</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.625008690338788</v>
+        <v>1.680018219370112</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2384979807337118</v>
+        <v>0.6548189072346986</v>
       </c>
       <c r="C7">
-        <v>0.03208424810249255</v>
+        <v>0.1071966066482872</v>
       </c>
       <c r="D7">
-        <v>0.6273211240568344</v>
+        <v>0.3743820515274763</v>
       </c>
       <c r="E7">
-        <v>0.2504302755768038</v>
+        <v>0.1372640476452176</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.8584463123558876</v>
+        <v>0.4370501674692306</v>
       </c>
       <c r="H7">
-        <v>0.9359866319576682</v>
+        <v>0.3852011124565706</v>
       </c>
       <c r="I7">
-        <v>0.7717832383812784</v>
+        <v>0.3497812034466747</v>
       </c>
       <c r="J7">
-        <v>0.1262500006633225</v>
+        <v>0.06139834302961944</v>
       </c>
       <c r="K7">
-        <v>0.2488955249870202</v>
+        <v>0.7193841987699443</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2467052549634019</v>
+        <v>0.2921831455406476</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.616838413574811</v>
+        <v>1.679155245916277</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2798130896065629</v>
+        <v>0.7897578977830904</v>
       </c>
       <c r="C8">
-        <v>0.03854532735883254</v>
+        <v>0.127922311150499</v>
       </c>
       <c r="D8">
-        <v>0.6337551667334225</v>
+        <v>0.4172397536718222</v>
       </c>
       <c r="E8">
-        <v>0.2518623144609364</v>
+        <v>0.1504027933563208</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.851506411145813</v>
+        <v>0.4434777973358308</v>
       </c>
       <c r="H8">
-        <v>0.9274899820338049</v>
+        <v>0.3799908574689184</v>
       </c>
       <c r="I8">
-        <v>0.7623225751478735</v>
+        <v>0.3396690030590825</v>
       </c>
       <c r="J8">
-        <v>0.1262089415986694</v>
+        <v>0.06526981880995919</v>
       </c>
       <c r="K8">
-        <v>0.2940275608049205</v>
+        <v>0.8660901258636216</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2618251481858067</v>
+        <v>0.3501698287530388</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.584698801589553</v>
+        <v>1.682379324367758</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3607562448077317</v>
+        <v>1.054803221707601</v>
       </c>
       <c r="C9">
-        <v>0.05113652641922783</v>
+        <v>0.1686103447140113</v>
       </c>
       <c r="D9">
-        <v>0.6487126215383796</v>
+        <v>0.5055115796091343</v>
       </c>
       <c r="E9">
-        <v>0.255590942975104</v>
+        <v>0.1778327598966598</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.8417456022186514</v>
+        <v>0.4642286388373407</v>
       </c>
       <c r="H9">
-        <v>0.9136837143313414</v>
+        <v>0.3746781481823831</v>
       </c>
       <c r="I9">
-        <v>0.7466573181124332</v>
+        <v>0.3254657288812659</v>
       </c>
       <c r="J9">
-        <v>0.126576078725293</v>
+        <v>0.07367349216617214</v>
       </c>
       <c r="K9">
-        <v>0.3823334802848706</v>
+        <v>1.154186165656768</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2922550752789519</v>
+        <v>0.4654708494151265</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.535733677796344</v>
+        <v>1.716161747130116</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4201589686708473</v>
+        <v>1.250364282860232</v>
       </c>
       <c r="C10">
-        <v>0.06033681173697403</v>
+        <v>0.1986310475524959</v>
       </c>
       <c r="D10">
-        <v>0.6611225060240145</v>
+        <v>0.5734338884884096</v>
       </c>
       <c r="E10">
-        <v>0.2588896698897614</v>
+        <v>0.1991817406143355</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.8369228118106946</v>
+        <v>0.4851639102621021</v>
       </c>
       <c r="H10">
-        <v>0.9052766300033852</v>
+        <v>0.3740811217364524</v>
       </c>
       <c r="I10">
-        <v>0.7369074717070703</v>
+        <v>0.3188478505931798</v>
       </c>
       <c r="J10">
-        <v>0.1271182156636428</v>
+        <v>0.08042245825843963</v>
       </c>
       <c r="K10">
-        <v>0.447070604304173</v>
+        <v>1.366733500595814</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3150802532907448</v>
+        <v>0.5515201846023885</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.508326878810323</v>
+        <v>1.759919065514026</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4471645372680655</v>
+        <v>1.339647681946786</v>
       </c>
       <c r="C11">
-        <v>0.06451086286908492</v>
+        <v>0.2123399867743814</v>
       </c>
       <c r="D11">
-        <v>0.6670753961913931</v>
+        <v>0.6051164010555681</v>
       </c>
       <c r="E11">
-        <v>0.260511451697063</v>
+        <v>0.2091966504040315</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.8352393287400446</v>
+        <v>0.4960945599188307</v>
       </c>
       <c r="H11">
-        <v>0.9018281410721869</v>
+        <v>0.3746023772829972</v>
       </c>
       <c r="I11">
-        <v>0.7328539395505089</v>
+        <v>0.3167574814228011</v>
       </c>
       <c r="J11">
-        <v>0.1274239050540515</v>
+        <v>0.08363652677262934</v>
       </c>
       <c r="K11">
-        <v>0.4764865610571292</v>
+        <v>1.46377140210214</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3255643513860988</v>
+        <v>0.5910447192353629</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.497718626816123</v>
+        <v>1.784457606016815</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4573879376153798</v>
+        <v>1.37351511511892</v>
       </c>
       <c r="C12">
-        <v>0.06608979936707726</v>
+        <v>0.2175408542536275</v>
       </c>
       <c r="D12">
-        <v>0.6693736898942007</v>
+        <v>0.6172367885444316</v>
       </c>
       <c r="E12">
-        <v>0.2611429615867777</v>
+        <v>0.2130364249893475</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8346752724044819</v>
+        <v>0.5004513276138596</v>
       </c>
       <c r="H12">
-        <v>0.9005762742876584</v>
+        <v>0.3749204851727086</v>
       </c>
       <c r="I12">
-        <v>0.73137386006238</v>
+        <v>0.3161064080764433</v>
       </c>
       <c r="J12">
-        <v>0.1275481441720814</v>
+        <v>0.08487599376110921</v>
       </c>
       <c r="K12">
-        <v>0.4876203568614983</v>
+        <v>1.500580613515751</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3295487333502862</v>
+        <v>0.606074016470501</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.493968844289384</v>
+        <v>1.794462412174283</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4551862889697702</v>
+        <v>1.366218397100226</v>
       </c>
       <c r="C13">
-        <v>0.06574982331792967</v>
+        <v>0.2164202933578281</v>
       </c>
       <c r="D13">
-        <v>0.6688767541234029</v>
+        <v>0.6146208113471516</v>
       </c>
       <c r="E13">
-        <v>0.2610061825887442</v>
+        <v>0.2122072926267293</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8347934849879977</v>
+        <v>0.4995030897954251</v>
       </c>
       <c r="H13">
-        <v>0.9008434854029161</v>
+        <v>0.3748464941552072</v>
       </c>
       <c r="I13">
-        <v>0.7316901795168391</v>
+        <v>0.3162402431992284</v>
       </c>
       <c r="J13">
-        <v>0.1275210100564692</v>
+        <v>0.08460802963573855</v>
       </c>
       <c r="K13">
-        <v>0.4852227439552337</v>
+        <v>1.492650071232021</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3286899936485526</v>
+        <v>0.6028342957536594</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.494764537761995</v>
+        <v>1.792275233522247</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4480056864215385</v>
+        <v>1.342432749896318</v>
       </c>
       <c r="C14">
-        <v>0.06464079714392312</v>
+        <v>0.2127676607087352</v>
       </c>
       <c r="D14">
-        <v>0.6672635960481728</v>
+        <v>0.6061110289493286</v>
       </c>
       <c r="E14">
-        <v>0.2605630584261434</v>
+        <v>0.2095115796876215</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.8351914513505392</v>
+        <v>0.4964485425269771</v>
       </c>
       <c r="H14">
-        <v>0.9017240673060485</v>
+        <v>0.3746260887421897</v>
       </c>
       <c r="I14">
-        <v>0.7327310720585949</v>
+        <v>0.3167010524741372</v>
       </c>
       <c r="J14">
-        <v>0.1274339563788729</v>
+        <v>0.08373804016986952</v>
       </c>
       <c r="K14">
-        <v>0.4774026565776239</v>
+        <v>1.466798377044086</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3258918638949311</v>
+        <v>0.5922798966562155</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.497404772353548</v>
+        <v>1.785266149272388</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4436069494211949</v>
+        <v>1.32787122996217</v>
       </c>
       <c r="C15">
-        <v>0.06396126479648956</v>
+        <v>0.2105316304726017</v>
       </c>
       <c r="D15">
-        <v>0.6662812235984461</v>
+        <v>0.6009148598275829</v>
       </c>
       <c r="E15">
-        <v>0.2602938935522374</v>
+        <v>0.2078666591963056</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.8354447828468068</v>
+        <v>0.4946063474359335</v>
       </c>
       <c r="H15">
-        <v>0.9022704799743906</v>
+        <v>0.3745070122717635</v>
       </c>
       <c r="I15">
-        <v>0.7333757994853087</v>
+        <v>0.3170018615300911</v>
       </c>
       <c r="J15">
-        <v>0.1273817376073225</v>
+        <v>0.08320811119983773</v>
       </c>
       <c r="K15">
-        <v>0.4726119076598252</v>
+        <v>1.450972079001417</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3241797821316865</v>
+        <v>0.585823357183564</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.499056806107717</v>
+        <v>1.781067112841782</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4183936995166846</v>
+        <v>1.244536839150385</v>
       </c>
       <c r="C16">
-        <v>0.06006379580558985</v>
+        <v>0.1977363623246902</v>
       </c>
       <c r="D16">
-        <v>0.6607396456782624</v>
+        <v>0.5713799942805622</v>
       </c>
       <c r="E16">
-        <v>0.258786116837129</v>
+        <v>0.1985336579579169</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.8370431062200225</v>
+        <v>0.4844791596695188</v>
       </c>
       <c r="H16">
-        <v>0.905509556690248</v>
+        <v>0.3740635738141549</v>
       </c>
       <c r="I16">
-        <v>0.7371800619853062</v>
+        <v>0.3190036645511256</v>
       </c>
       <c r="J16">
-        <v>0.127099425659523</v>
+        <v>0.08021544789644963</v>
       </c>
       <c r="K16">
-        <v>0.4451474810427101</v>
+        <v>1.360399948058642</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3143971030156507</v>
+        <v>0.5489454470507695</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.509057563623088</v>
+        <v>1.758412536575008</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4029214172439879</v>
+        <v>1.193504196470144</v>
       </c>
       <c r="C17">
-        <v>0.05766990166691244</v>
+        <v>0.1899017081068024</v>
       </c>
       <c r="D17">
-        <v>0.6574187262513931</v>
+        <v>0.5534691853561355</v>
       </c>
       <c r="E17">
-        <v>0.257892145915541</v>
+        <v>0.1928883998772406</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.8381543897405948</v>
+        <v>0.4786373671603172</v>
       </c>
       <c r="H17">
-        <v>0.9075928701628868</v>
+        <v>0.3739992384419253</v>
       </c>
       <c r="I17">
-        <v>0.7396116319168691</v>
+        <v>0.3204730352179901</v>
       </c>
       <c r="J17">
-        <v>0.1269413561958146</v>
+        <v>0.07841756388086196</v>
       </c>
       <c r="K17">
-        <v>0.4282899906234832</v>
+        <v>1.304935142160105</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3084214132515086</v>
+        <v>0.5264246324624722</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.515668883146162</v>
+        <v>1.74573335690323</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3940206011009479</v>
+        <v>1.164181112887491</v>
       </c>
       <c r="C18">
-        <v>0.05629194688300743</v>
+        <v>0.1854002190663522</v>
       </c>
       <c r="D18">
-        <v>0.6555375812048396</v>
+        <v>0.5432405400038078</v>
       </c>
       <c r="E18">
-        <v>0.2573893658952855</v>
+        <v>0.18966969157092</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.8388416120304498</v>
+        <v>0.4754087943217655</v>
       </c>
       <c r="H18">
-        <v>0.9088265252761261</v>
+        <v>0.3740364331520851</v>
       </c>
       <c r="I18">
-        <v>0.7410461352572142</v>
+        <v>0.3214042649513935</v>
       </c>
       <c r="J18">
-        <v>0.1268559994022027</v>
+        <v>0.07739690923763476</v>
       </c>
       <c r="K18">
-        <v>0.4185909108783505</v>
+        <v>1.27306528162822</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3049938561139314</v>
+        <v>0.513506565939835</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.51964654104134</v>
+        <v>1.738873765295295</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3910066857909555</v>
+        <v>1.154257558053331</v>
       </c>
       <c r="C19">
-        <v>0.05582521698097764</v>
+        <v>0.1838768559454422</v>
       </c>
       <c r="D19">
-        <v>0.6549056367398691</v>
+        <v>0.5397895673001756</v>
       </c>
       <c r="E19">
-        <v>0.2572210940977939</v>
+        <v>0.1885846416356074</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.8390825435219114</v>
+        <v>0.4743377877812378</v>
       </c>
       <c r="H19">
-        <v>0.909250299450818</v>
+        <v>0.3740615732126287</v>
       </c>
       <c r="I19">
-        <v>0.7415380037906552</v>
+        <v>0.3217341079011007</v>
       </c>
       <c r="J19">
-        <v>0.1268280544834113</v>
+        <v>0.07705359246321564</v>
       </c>
       <c r="K19">
-        <v>0.4153064555733863</v>
+        <v>1.262279818589121</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3038349826105531</v>
+        <v>0.5091385741826215</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.521023365106942</v>
+        <v>1.73662425479921</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4045686346113371</v>
+        <v>1.19893357026811</v>
       </c>
       <c r="C20">
-        <v>0.05792484501829165</v>
+        <v>0.1907352095627743</v>
       </c>
       <c r="D20">
-        <v>0.6577692477406458</v>
+        <v>0.555368176682947</v>
       </c>
       <c r="E20">
-        <v>0.2579861302693445</v>
+        <v>0.1934863924465802</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.8380311192927365</v>
+        <v>0.4792455220303964</v>
       </c>
       <c r="H20">
-        <v>0.9073674357506576</v>
+        <v>0.3739983606034087</v>
       </c>
       <c r="I20">
-        <v>0.7393490685661739</v>
+        <v>0.3203076509450646</v>
       </c>
       <c r="J20">
-        <v>0.126957607553237</v>
+        <v>0.07860754889441068</v>
       </c>
       <c r="K20">
-        <v>0.4300848241643962</v>
+        <v>1.310836060344769</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3090565538088512</v>
+        <v>0.5288183042425345</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.514946985037881</v>
+        <v>1.74703792323433</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4501148900409362</v>
+        <v>1.349417508046685</v>
       </c>
       <c r="C21">
-        <v>0.06496659136946903</v>
+        <v>0.2138402499820842</v>
       </c>
       <c r="D21">
-        <v>0.6677362251280101</v>
+        <v>0.608607138558682</v>
       </c>
       <c r="E21">
-        <v>0.260692743532303</v>
+        <v>0.2103020597992398</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.835072565442843</v>
+        <v>0.497339705877593</v>
       </c>
       <c r="H21">
-        <v>0.901463953940862</v>
+        <v>0.3746874951065138</v>
       </c>
       <c r="I21">
-        <v>0.7324238464652311</v>
+        <v>0.3165618204181655</v>
       </c>
       <c r="J21">
-        <v>0.1274592960794223</v>
+        <v>0.08399295617597602</v>
       </c>
       <c r="K21">
-        <v>0.4796997568379879</v>
+        <v>1.474389827404821</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3267133565456888</v>
+        <v>0.5953782283611773</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.496622016326512</v>
+        <v>1.787305162569794</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4798641190267574</v>
+        <v>1.448110005123027</v>
       </c>
       <c r="C22">
-        <v>0.06955891738581954</v>
+        <v>0.2289977000076533</v>
       </c>
       <c r="D22">
-        <v>0.6745069793460061</v>
+        <v>0.6441234764129149</v>
       </c>
       <c r="E22">
-        <v>0.2625629316878815</v>
+        <v>0.2215699655809118</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.8335670762063643</v>
+        <v>0.5104412762745625</v>
       </c>
       <c r="H22">
-        <v>0.8979204205864022</v>
+        <v>0.3758449811499531</v>
       </c>
       <c r="I22">
-        <v>0.7282178493289209</v>
+        <v>0.3149368670184067</v>
       </c>
       <c r="J22">
-        <v>0.1278366073856887</v>
+        <v>0.08764387560126607</v>
       </c>
       <c r="K22">
-        <v>0.5120942963067989</v>
+        <v>1.581655927310294</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3383362420089711</v>
+        <v>0.6392455026016961</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.486203795472534</v>
+        <v>1.817799489632961</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4639882209776829</v>
+        <v>1.395400600543525</v>
       </c>
       <c r="C23">
-        <v>0.06710883362454467</v>
+        <v>0.2209019476824068</v>
       </c>
       <c r="D23">
-        <v>0.6708698616046433</v>
+        <v>0.6250981860640366</v>
       </c>
       <c r="E23">
-        <v>0.2615555278072321</v>
+        <v>0.2155293372228826</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.8343313991682351</v>
+        <v>0.5033266648676999</v>
       </c>
       <c r="H23">
-        <v>0.8997828919765283</v>
+        <v>0.3751601713890125</v>
       </c>
       <c r="I23">
-        <v>0.7304333812222339</v>
+        <v>0.3157259662729608</v>
       </c>
       <c r="J23">
-        <v>0.1276307107343726</v>
+        <v>0.08568271920833581</v>
       </c>
       <c r="K23">
-        <v>0.494807818826672</v>
+        <v>1.524367240760967</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3321253525550105</v>
+        <v>0.6157965463078483</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.491621628179075</v>
+        <v>1.80112571543637</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.403823945024385</v>
+        <v>1.196478900578427</v>
       </c>
       <c r="C24">
-        <v>0.05780959033575073</v>
+        <v>0.1903583751177109</v>
       </c>
       <c r="D24">
-        <v>0.6576106894494274</v>
+        <v>0.5545094300454423</v>
       </c>
       <c r="E24">
-        <v>0.2579436051284318</v>
+        <v>0.1932159567304765</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.8380866993184668</v>
+        <v>0.478970171583299</v>
       </c>
       <c r="H24">
-        <v>0.9074692427220867</v>
+        <v>0.3739985269159263</v>
       </c>
       <c r="I24">
-        <v>0.7394676595710337</v>
+        <v>0.3203821524563253</v>
       </c>
       <c r="J24">
-        <v>0.1269502431214562</v>
+        <v>0.07852161638733435</v>
       </c>
       <c r="K24">
-        <v>0.4292734031874375</v>
+        <v>1.308168201389975</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3087693819948996</v>
+        <v>0.5277360340644393</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.515272804689204</v>
+        <v>1.746446793416339</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3388691593967508</v>
+        <v>0.9829988338767066</v>
       </c>
       <c r="C25">
-        <v>0.04773896876962169</v>
+        <v>0.157588467609898</v>
       </c>
       <c r="D25">
-        <v>0.6444163140087369</v>
+        <v>0.4811301264644214</v>
       </c>
       <c r="E25">
-        <v>0.2544839003010217</v>
+        <v>0.170215944962866</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.8439739170653695</v>
+        <v>0.4576708414255393</v>
       </c>
       <c r="H25">
-        <v>0.9171134260457166</v>
+        <v>0.3755588398201155</v>
       </c>
       <c r="I25">
-        <v>0.7505861685231885</v>
+        <v>0.3286671511125334</v>
       </c>
       <c r="J25">
-        <v>0.1264288857082008</v>
+        <v>0.07130522256201033</v>
       </c>
       <c r="K25">
-        <v>0.3584677100649856</v>
+        <v>1.076142058206301</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2839402202306474</v>
+        <v>0.4340720677946805</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.547475155863424</v>
+        <v>1.703864217580474</v>
       </c>
     </row>
   </sheetData>
